--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,47 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhwan/Documents/IdeaProjects/COSC223-Project-Queueing/out/production/COSC223-Project-Queueing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhwan/IdeaProjects/COSC223-Project-Queueing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F520A823-D9E0-0040-8CF3-562F35ED4E60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4433365-4E7C-874B-9847-A1A9CC725006}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" xr2:uid="{BE471ED6-1362-274C-9D76-61A9CB5C6E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$1:$CW$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$CW$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$3:$CW$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$4:$CW$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$5:$CW$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$1:$CW$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$2:$CW$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$3:$CW$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$4:$CW$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$5:$CW$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$CW$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$CW$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$3:$CW$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$4:$CW$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$5:$CW$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$1</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3687,12 +3656,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4021,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC092E0-5EC9-FC4E-8950-C46F1991B2AB}">
   <dimension ref="A1:CW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="CW5" sqref="A1:CW5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
